--- a/testcase/priceruledpgtw/priceruledpgtw.xlsx
+++ b/testcase/priceruledpgtw/priceruledpgtw.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="75">
   <si>
     <t>模块</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>高</t>
-  </si>
-  <si>
-    <t>NTC1</t>
   </si>
   <si>
     <t>乘客网关预估价格接口测试
@@ -92,7 +89,7 @@
   <si>
     <t>1.接口平台写入接口数据
 2.按预置条件设置入参数据，
-3.执行接口
+3.执行接口（先执行乘客登录接口）
 4.查看kid字段值和计价服务接口返回的kid值是否匹配</t>
   </si>
   <si>
@@ -197,10 +194,11 @@
   <si>
     <t>1.接口平台写入接口数据
 2.按预置条件设置入参数据，
-3.执行接口</t>
-  </si>
-  <si>
-    <t>反参错误提示正确</t>
+3.执行接口（先执行乘客登录接口）
+4.查看反参信息</t>
+  </si>
+  <si>
+    <t>反参错误信息提示正确</t>
   </si>
   <si>
     <t>{
@@ -225,9 +223,6 @@
     <t>接口测试</t>
   </si>
   <si>
-    <t>NTC2</t>
-  </si>
-  <si>
     <t>乘客订单详情接口测试，查询订单为老订单</t>
   </si>
   <si>
@@ -236,7 +231,7 @@
   <si>
     <t>1.接口平台写入接口数据
 2.设置需要查询的订单号orderId（老订单），
-3.执行接口</t>
+3.执行接口（先执行乘客登录接口）</t>
   </si>
   <si>
     <t>反参数据正确，priceRule反参值为老的无车级的url</t>
@@ -250,7 +245,7 @@
   <si>
     <t>1.接口平台写入接口数据
 2.设置需要查询的订单号orderId（老订单已使用车级），
-3.执行接口</t>
+3.执行接口（先执行乘客登录接口）</t>
   </si>
   <si>
     <t>反参数据正确，priceRule反参值为有车级的url</t>
@@ -266,7 +261,7 @@
   <si>
     <t>1.接口平台写入接口数据
 2.设置需要查询的订单号orderId（新订单已使用kid，计价规则从yaml里提取），
-3.执行接口</t>
+3.执行接口（先执行乘客登录接口）</t>
   </si>
   <si>
     <t>反参数据正确，priceRule反参值为有kid且从yaml提取</t>
@@ -277,37 +272,109 @@
 130 车级计价规则且有kid值</t>
   </si>
   <si>
-    <t>乘客拉起支付页接口测试，查询订单为新订单</t>
+    <t>app端校验</t>
+  </si>
+  <si>
+    <t>校验乘客app端订单信息</t>
+  </si>
+  <si>
+    <t>用上叙接口订单中的乘客登陆</t>
+  </si>
+  <si>
+    <t>1.乘客手机号登陆乘客app
+2.进入我的行程，查看相关订单信息（可用fiddler抓包查看priceRule反参信息）
+3.进入费用明细--查看计价规则页面
+4.查看计价规则页面显示的信息和预期一致</t>
+  </si>
+  <si>
+    <t>计价规则页面显示的信息正确</t>
+  </si>
+  <si>
+    <t>可fiddler抓包查看参数，看计价服务返回给app端的参数是否一致</t>
+  </si>
+  <si>
+    <t>乘客拉起支付页接口测试，待支付订单为新订单</t>
   </si>
   <si>
     <t>GET http://gtwIp:port/passenger/v2/order/statement/${orderId}</t>
   </si>
   <si>
     <t>1.接口平台写入接口数据
-2.需业务流程支持，司机发起收款后
+2.需要待支付的订单，可在数据库中查询
 3.设置需要支付的订单号orderId（新订单已使用kid，计价规则从yaml里提取），
-4.执行接口</t>
-  </si>
-  <si>
-    <t>乘客拉起支付页接口测试，查询订单为老订单但已使用车级</t>
+4.执行接口（先执行乘客登录接口）</t>
+  </si>
+  <si>
+    <t>乘客拉起支付页接口测试，待支付订单为老订单但已使用车级</t>
+  </si>
+  <si>
+    <t>GET http://gtwIp:port/passenger/v2/order/statement/${orderId}
+order_no:T42uv6n9w1ab960b30c90b4cb2ae0969dcc9f9c445
+passenger_mobile:13564810417</t>
   </si>
   <si>
     <t>1.接口平台写入接口数据
-2.需业务流程支持，司机发起收款后
+2.需要待支付的订单，可在数据库中查询
 3.设置需要支付的订单号orderId（老订单已使用车级），
-4.执行接口</t>
-  </si>
-  <si>
-    <t>乘客拉起支付页接口测试，查询订单为老订单</t>
+4.执行接口（先执行乘客登录接口）</t>
+  </si>
+  <si>
+    <t>乘客拉起支付页接口测试，待支付订单为老订单</t>
+  </si>
+  <si>
+    <t>GET http://gtwIp:port/passenger/v2/order/statement/${orderId}
+order_no:T42um6n9w18f40781b063a41ba94b9d6712dfa15b8
+passenger_mobile:18800000009</t>
   </si>
   <si>
     <t>1.接口平台写入接口数据
-2.需业务流程支持，司机发起收款后
+2.需要待支付的订单，可在数据库中查询
 3.设置需要支付的订单号orderId（老订单），
-4.执行接口</t>
+4.执行接口（先执行乘客登录接口）</t>
+  </si>
+  <si>
+    <t>校验乘客app端支付页面信息</t>
+  </si>
+  <si>
+    <t>用上叙支付接口订单中的乘客登陆</t>
+  </si>
+  <si>
+    <t>1.乘客手机号登陆乘客app
+2.查看未支付订单信息（可用fiddler抓包查看priceRule反参信息）
+3.查看计价规则页面显示的信息和预期一致</t>
+  </si>
+  <si>
+    <t>可fiddler抓包查看参数，看服务端返回给app端的参数是否一致</t>
   </si>
   <si>
     <t>drivergtw</t>
+  </si>
+  <si>
+    <t>司机订单详情接口测试，查询订单为老订单</t>
+  </si>
+  <si>
+    <t>GET http://{{ip}}:{{port}}/driver/v2/order/detail/${orderId}</t>
+  </si>
+  <si>
+    <t>1.接口平台写入接口数据
+2.设置需要查询的订单号orderId（老订单），
+3.执行接口（先执行司机登录接口）</t>
+  </si>
+  <si>
+    <t>司机订单详情接口测试，查询订单为老订单但已使用车级</t>
+  </si>
+  <si>
+    <t>1.接口平台写入接口数据
+2.设置需要查询的订单号orderId（老订单已使用车级），
+3.执行接口（先执行司机登录接口）</t>
+  </si>
+  <si>
+    <t>司机订单详情接口测试，查询订单为新订单</t>
+  </si>
+  <si>
+    <t>1.接口平台写入接口数据
+2.设置需要查询的订单号orderId（新订单已使用kid，计价规则从yaml里提取），
+3.执行接口（先执行司机登录接口）</t>
   </si>
 </sst>
 </file>
@@ -1365,12 +1432,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1442,26 +1509,26 @@
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="M2" s="2"/>
     </row>
@@ -1476,26 +1543,26 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
+      <c r="F3">
+        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="M3" s="2"/>
     </row>
@@ -1510,26 +1577,26 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
+      <c r="F4">
+        <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="M4" s="2"/>
     </row>
@@ -1544,26 +1611,26 @@
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
+      <c r="F5">
+        <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="M5" s="2"/>
     </row>
@@ -1573,31 +1640,31 @@
       </c>
       <c r="B6" s="7"/>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
+      <c r="F6">
+        <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="M6" s="2"/>
     </row>
@@ -1607,31 +1674,31 @@
       </c>
       <c r="B7" s="7"/>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="J7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="67.5" spans="1:12">
@@ -1641,31 +1708,31 @@
       <c r="B8" s="7"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="54" spans="1:12">
@@ -1675,66 +1742,66 @@
       <c r="B9" s="7"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="67.5" spans="1:12">
+    </row>
+    <row r="10" ht="67.5" spans="1:13">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
-        <v>36</v>
+      <c r="F10">
+        <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" customFormat="1" ht="67.5" spans="1:12">
       <c r="A11" s="6" t="s">
@@ -1743,93 +1810,237 @@
       <c r="B11" s="7"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s">
-        <v>36</v>
+      <c r="F11">
+        <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="67.5" spans="1:12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="81" spans="1:12">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="s">
-        <v>36</v>
+      <c r="F12">
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="81" spans="1:12">
       <c r="A13" s="6" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="6"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" ht="14.25" spans="5:5">
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" ht="14.25" spans="5:5">
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" ht="14.25" spans="5:5">
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" ht="14.25" spans="5:5">
-      <c r="E17" s="6"/>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="54" spans="1:13">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" customFormat="1" ht="54" spans="1:12">
+      <c r="A15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" ht="67.5" spans="1:12">
+      <c r="A16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" ht="54" spans="1:12">
+      <c r="A17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" ht="14.25" spans="5:5">
       <c r="E18" s="6"/>
@@ -1845,6 +2056,12 @@
     </row>
     <row r="22" ht="14.25" spans="5:5">
       <c r="E22" s="6"/>
+    </row>
+    <row r="23" ht="14.25" spans="5:5">
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" ht="14.25" spans="5:5">
+      <c r="E24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/testcase/priceruledpgtw/priceruledpgtw.xlsx
+++ b/testcase/priceruledpgtw/priceruledpgtw.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="81">
   <si>
     <t>模块</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>passengergtw</t>
+  </si>
+  <si>
+    <t>TRIP-2062</t>
   </si>
   <si>
     <t>正常参数接口测试</t>
@@ -100,6 +103,9 @@
   </si>
   <si>
     <t>priceRule url中增加了kid,查看PriceService的queryEstimatePriceV2接口反参kid值，可以通过log日志去查看验证</t>
+  </si>
+  <si>
+    <t>乘客预估价格只受当前最新计价规则影响，如果计价规则发布的是新计价规则，则预估信息显示为新规则</t>
   </si>
   <si>
     <t>乘客网关预估价格接口测试
@@ -256,6 +262,10 @@
 130 车级计价规则且kid为空</t>
   </si>
   <si>
+    <t>乘客订单是免费升舱类型的订单，反参增加string sponsorName =106 ;// 赞助商名称
+string  sponsorImg =107 ;//赞助商 图片URL</t>
+  </si>
+  <si>
     <t>乘客订单详情接口测试，查询订单为新订单</t>
   </si>
   <si>
@@ -293,6 +303,9 @@
     <t>可fiddler抓包查看参数，看计价服务返回给app端的参数是否一致</t>
   </si>
   <si>
+    <t>乘客订单是免费升舱类型的订单，在乘客接到订单时会有升舱提示</t>
+  </si>
+  <si>
     <t>乘客拉起支付页接口测试，待支付订单为新订单</t>
   </si>
   <si>
@@ -319,6 +332,9 @@
 4.执行接口（先执行乘客登录接口）</t>
   </si>
   <si>
+    <t>查看老规则时需要之前未支付的订单</t>
+  </si>
+  <si>
     <t>乘客拉起支付页接口测试，待支付订单为老订单</t>
   </si>
   <si>
@@ -348,6 +364,9 @@
   </si>
   <si>
     <t>drivergtw</t>
+  </si>
+  <si>
+    <t>TRIP-2057</t>
   </si>
   <si>
     <t>司机订单详情接口测试，查询订单为老订单</t>
@@ -429,6 +448,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -446,15 +531,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,14 +561,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -483,60 +569,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,24 +585,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,19 +601,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,163 +763,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,6 +806,54 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,49 +883,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,21 +907,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -896,10 +915,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,137 +927,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1065,6 +1084,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1434,10 +1456,10 @@
   <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1503,270 +1525,308 @@
         <v>13</v>
       </c>
       <c r="B2" s="7"/>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" ht="256.5" spans="1:13">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="7"/>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="2"/>
     </row>
     <row r="4" ht="256.5" spans="1:13">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7"/>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" ht="243" spans="1:13">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7"/>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" ht="256.5" spans="1:13">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7"/>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" ht="54" spans="1:12">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7"/>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="67.5" spans="1:12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="67.5" spans="1:13">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="54" spans="1:12">
+        <v>45</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="67.5" spans="1:13">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:13">
@@ -1774,135 +1834,152 @@
         <v>13</v>
       </c>
       <c r="B10" s="7"/>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" customFormat="1" ht="67.5" spans="1:12">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="81" spans="1:12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="81" spans="1:13">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="81" spans="1:12">
+        <v>45</v>
+      </c>
+      <c r="M12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="81" spans="1:13">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13">
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="M13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="54" spans="1:13">
@@ -1910,136 +1987,144 @@
         <v>13</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" customFormat="1" ht="54" spans="1:12">
       <c r="A15" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15">
         <v>12</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" ht="67.5" spans="1:12">
       <c r="A16" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16">
         <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="54" spans="1:12">
       <c r="A17" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17">
         <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="5:5">
@@ -2064,6 +2149,9 @@
       <c r="E24" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C16" r:id="rId1" display="TRIP-2057" tooltip="http://jira.saicmobility.com:8080/browse/TRIP-2057"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/testcase/priceruledpgtw/priceruledpgtw.xlsx
+++ b/testcase/priceruledpgtw/priceruledpgtw.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="testcases" sheetId="1" r:id="rId1"/>
     <sheet name="系统架构图" sheetId="2" r:id="rId2"/>
+    <sheet name="copyfromconfluence" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="173">
   <si>
     <t>模块</t>
   </si>
@@ -395,6 +396,282 @@
 2.设置需要查询的订单号orderId（新订单已使用kid，计价规则从yaml里提取），
 3.执行接口（先执行司机登录接口）</t>
   </si>
+  <si>
+    <t>乘客网关预估价格接口测试</t>
+  </si>
+  <si>
+    <t>POST http://gtwIp:port/passenger/v2/prices/estimatepath</t>
+  </si>
+  <si>
+    <t>1.接口平台写入接口数据</t>
+  </si>
+  <si>
+    <t>carLevel=110</t>
+  </si>
+  <si>
+    <t>2.按预置条件设置入参数据，</t>
+  </si>
+  <si>
+    <t>实际结果：carLevel= 空</t>
+  </si>
+  <si>
+    <t>POST data:</t>
+  </si>
+  <si>
+    <t>3.执行接口（先执行乘客登录接口）</t>
+  </si>
+  <si>
+    <t>开发解释 预估没有carLevel  只有kId</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>4.查看kid字段值和计价服务接口返回的kid值是否匹配</t>
+  </si>
+  <si>
+    <t>  "carLevel": "110",</t>
+  </si>
+  <si>
+    <t>  "destLat": 31.194406,</t>
+  </si>
+  <si>
+    <t>  "destLon": 121.439491,</t>
+  </si>
+  <si>
+    <t>  "destPoiId": "B00156EVQY",</t>
+  </si>
+  <si>
+    <t>  "destPoiType": "",</t>
+  </si>
+  <si>
+    <t>  "orderType": 1,</t>
+  </si>
+  <si>
+    <t>  "originLat": 31.211586,</t>
+  </si>
+  <si>
+    <t>  "originLon": 121.476813,</t>
+  </si>
+  <si>
+    <t>  "originPoiId": "",</t>
+  </si>
+  <si>
+    <t>  "originPoiType": "",</t>
+  </si>
+  <si>
+    <t>  "productType": "1",</t>
+  </si>
+  <si>
+    <t>  "sku": 1</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>carLevel=120</t>
+  </si>
+  <si>
+    <t>  "carLevel": "120",</t>
+  </si>
+  <si>
+    <t>carLevel=130</t>
+  </si>
+  <si>
+    <t>  "carLevel": "130",</t>
+  </si>
+  <si>
+    <t>无carLevel入参</t>
+  </si>
+  <si>
+    <t>carLevel为非定义值</t>
+  </si>
+  <si>
+    <t>    "errMsg": "系统错误,请稍后再试,错误码[-620]",</t>
+  </si>
+  <si>
+    <t>    "data": {</t>
+  </si>
+  <si>
+    <t>4.查看反参信息</t>
+  </si>
+  <si>
+    <t>        "duration": 0,</t>
+  </si>
+  <si>
+    <t>  "carLevel": -1,</t>
+  </si>
+  <si>
+    <t>        "durationFee": 0,</t>
+  </si>
+  <si>
+    <t>        "lessThanStartFee": 0,</t>
+  </si>
+  <si>
+    <t>        "distance": 0,</t>
+  </si>
+  <si>
+    <t>        "coupleFee": 0,</t>
+  </si>
+  <si>
+    <t>        "price": 0,</t>
+  </si>
+  <si>
+    <t>        "mileageFee": 0,</t>
+  </si>
+  <si>
+    <t>        "longDistanceFee": 0,</t>
+  </si>
+  <si>
+    <t>        "longDistance": 0,</t>
+  </si>
+  <si>
+    <t>        "minfee": 0</t>
+  </si>
+  <si>
+    <t>    },</t>
+  </si>
+  <si>
+    <t>    "errCode": -620,</t>
+  </si>
+  <si>
+    <t>    "now": 1553678283583</t>
+  </si>
+  <si>
+    <t>GET http://gtwIp:port/passenger/v2/order/detail/${orderId}</t>
+  </si>
+  <si>
+    <t>"priceRule": "https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=",</t>
+  </si>
+  <si>
+    <t>2.设置需要查询的订单号orderId（老订单），</t>
+  </si>
+  <si>
+    <t>3月26号23点之前，kid和carlevel为空</t>
+  </si>
+  <si>
+    <t>订单的派单时间 &gt; carPriceUrlShowTime 时 使用 110 车级计价规则</t>
+  </si>
+  <si>
+    <t>乘客订单是免费升舱类型的订单，反参增加string sponsorName =106 ;// 赞助商名称</t>
+  </si>
+  <si>
+    <t>2.设置需要查询的订单号orderId（老订单已使用车级），</t>
+  </si>
+  <si>
+    <t>120 车级计价规则</t>
+  </si>
+  <si>
+    <t>string  sponsorImg =107 ;//赞助商 图片URL</t>
+  </si>
+  <si>
+    <t>130 车级计价规则且kid为空</t>
+  </si>
+  <si>
+    <t>"priceRule": "https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=110",</t>
+  </si>
+  <si>
+    <t>3月26号23点--4月2日之前，kid为空carlevel有车级显示</t>
+  </si>
+  <si>
+    <t>订单的派单时间 为4月2日及之后 时 使用 110 车级计价规则</t>
+  </si>
+  <si>
+    <t>2.设置需要查询的订单号orderId（新订单已使用kid，计价规则从yaml里提取），</t>
+  </si>
+  <si>
+    <t>130 车级计价规则且有kid值</t>
+  </si>
+  <si>
+    <t>"priceRule": "https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=0_1_310100_120_1_319040108&amp;carLevel=120",</t>
+  </si>
+  <si>
+    <t>4月2日及之后，kid有值且carlevel有车级显示</t>
+  </si>
+  <si>
+    <t>1.乘客手机号登陆乘客app</t>
+  </si>
+  <si>
+    <t>2.进入我的行程，查看相关订单信息（可用fiddler抓包查看priceRule反参信息）</t>
+  </si>
+  <si>
+    <t>3.进入费用明细--查看计价规则页面</t>
+  </si>
+  <si>
+    <t>4.查看计价规则页面显示的信息和预期一致</t>
+  </si>
+  <si>
+    <t>GET http://gtwIp:port/passenger/v2/order/statement/${orderId}</t>
+  </si>
+  <si>
+    <t>"priceRule": "https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=0_1_310100_110_1_319040208&amp;carLevel=110",</t>
+  </si>
+  <si>
+    <t>2.需要待支付的订单，可在数据库中查询</t>
+  </si>
+  <si>
+    <t>4月2日及之后，有kid和carlevel值</t>
+  </si>
+  <si>
+    <t>3.设置需要支付的订单号orderId（新订单已使用kid，计价规则从yaml里提取），</t>
+  </si>
+  <si>
+    <t>4.执行接口（先执行乘客登录接口）</t>
+  </si>
+  <si>
+    <t>order_no:T42uv6n9w1ab960b30c90b4cb2ae0969dcc9f9c445</t>
+  </si>
+  <si>
+    <t>passenger_mobile:13564810417</t>
+  </si>
+  <si>
+    <t>3.设置需要支付的订单号orderId（老订单已使用车级），</t>
+  </si>
+  <si>
+    <t>3月26日23点--4月2日之前，kid为空carlevel有值</t>
+  </si>
+  <si>
+    <t>order_no:T42um6n9w18f40781b063a41ba94b9d6712dfa15b8</t>
+  </si>
+  <si>
+    <t>passenger_mobile:18800000009</t>
+  </si>
+  <si>
+    <t>3.设置需要支付的订单号orderId（老订单），</t>
+  </si>
+  <si>
+    <t>3月26日23点之前，kid和carlevel值为空</t>
+  </si>
+  <si>
+    <t>fiddler抓包结果：（但在app端显示不正常）</t>
+  </si>
+  <si>
+    <t>2.查看未支付订单信息（可用fiddler抓包查看priceRule反参信息）</t>
+  </si>
+  <si>
+    <t>3月26日23点之前：priceRule=https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=</t>
+  </si>
+  <si>
+    <t>3.查看计价规则页面显示的信息和预期一致</t>
+  </si>
+  <si>
+    <t>3月26日23点--4月2日之前：priceRule=https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=110</t>
+  </si>
+  <si>
+    <t>4月2日及之后：</t>
+  </si>
+  <si>
+    <t>priceRule=https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=0_1_310100_130_1_319040208&amp;carLevel=130</t>
+  </si>
+  <si>
+    <t>carlevel有显示车级，开发说司机没有3月26日的限制，需要确认。</t>
+  </si>
+  <si>
+    <t>3.执行接口（先执行司机登录接口）</t>
+  </si>
+  <si>
+    <t>正确</t>
+  </si>
 </sst>
 </file>
 
@@ -406,13 +683,25 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0052CC"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -457,21 +746,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,6 +776,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,7 +820,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -524,54 +853,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,13 +875,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,7 +890,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,7 +908,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,31 +938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,13 +962,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,113 +1076,69 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC1C7D0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC1C7D0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C7D0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC1C7D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC1C7D0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC1C7D0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C7D0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC1C7D0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC1C7D0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC1C7D0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC1C7D0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC1C7D0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -828,15 +1175,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -858,6 +1196,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -869,15 +1225,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,10 +1262,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,139 +1274,163 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1067,26 +1438,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1457,7 +1825,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
@@ -1466,12 +1834,12 @@
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18" style="10" customWidth="1"/>
+    <col min="5" max="5" width="7" style="10" customWidth="1"/>
     <col min="6" max="6" width="8.875" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="38.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="38.25" style="10" customWidth="1"/>
     <col min="9" max="9" width="38.25" customWidth="1"/>
     <col min="10" max="10" width="17.75" customWidth="1"/>
     <col min="11" max="11" width="29.625" customWidth="1"/>
@@ -1479,464 +1847,464 @@
     <col min="13" max="13" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:13">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="256.5" spans="1:13">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="14" t="s">
         <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" ht="256.5" spans="1:13">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="14" t="s">
         <v>20</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" ht="256.5" spans="1:13">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="14" t="s">
         <v>20</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" ht="243" spans="1:13">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="14" t="s">
         <v>20</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" ht="256.5" spans="1:13">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="14" t="s">
         <v>34</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:12">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="14" t="s">
         <v>40</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="67.5" spans="1:13">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="14" t="s">
         <v>44</v>
       </c>
       <c r="K8" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="67.5" spans="1:13">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="14" t="s">
         <v>49</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:13">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="14" t="s">
         <v>55</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="67.5" spans="1:12">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="14" t="s">
         <v>49</v>
       </c>
       <c r="K11" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="81" spans="1:13">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="14" t="s">
         <v>44</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="10" t="s">
         <v>45</v>
       </c>
       <c r="M12" t="s">
@@ -1944,38 +2312,38 @@
       </c>
     </row>
     <row r="13" customFormat="1" ht="81" spans="1:13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F13">
         <v>11</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="14" t="s">
         <v>40</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="10" t="s">
         <v>41</v>
       </c>
       <c r="M13" t="s">
@@ -1983,170 +2351,170 @@
       </c>
     </row>
     <row r="14" customFormat="1" ht="54" spans="1:13">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="14" t="s">
         <v>55</v>
       </c>
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" customFormat="1" ht="54" spans="1:12">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F15">
         <v>12</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="14" t="s">
         <v>40</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="67.5" spans="1:12">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F16">
         <v>13</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="14" t="s">
         <v>44</v>
       </c>
       <c r="K16" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" ht="54" spans="1:12">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F17">
         <v>14</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="14" t="s">
         <v>49</v>
       </c>
       <c r="K17" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="5:5">
-      <c r="E18" s="6"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" ht="14.25" spans="5:5">
-      <c r="E19" s="6"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" ht="14.25" spans="5:5">
-      <c r="E20" s="6"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" ht="14.25" spans="5:5">
-      <c r="E21" s="6"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" ht="14.25" spans="5:5">
-      <c r="E22" s="6"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" ht="14.25" spans="5:5">
-      <c r="E23" s="6"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" ht="14.25" spans="5:5">
-      <c r="E24" s="6"/>
+      <c r="E24" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2172,4 +2540,2883 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M126"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2:L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="24.25" customWidth="1"/>
+    <col min="8" max="8" width="43.875" customWidth="1"/>
+    <col min="9" max="9" width="34.125" customWidth="1"/>
+    <col min="10" max="10" width="27.875" customWidth="1"/>
+    <col min="12" max="12" width="21.5" customWidth="1"/>
+    <col min="13" max="13" width="28.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="39" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="39" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:13">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:13">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" ht="29.25" spans="1:13">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:13">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:13">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:13">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:13">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:13">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:13">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:13">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:13">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:13">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:13">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:13">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:13">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:13">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" ht="39" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:13">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:13">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" ht="29.25" spans="1:13">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:13">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:13">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:13">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:13">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:13">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:13">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:13">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:13">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:13">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" ht="16.5" spans="1:13">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" ht="16.5" spans="1:13">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" ht="16.5" spans="1:13">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" ht="16.5" spans="1:13">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" ht="39" spans="1:13">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="1:13">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="1:13">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" ht="29.25" spans="1:13">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" ht="16.5" spans="1:13">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" ht="16.5" spans="1:13">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" ht="16.5" spans="1:13">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" ht="16.5" spans="1:13">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" ht="16.5" spans="1:13">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" ht="16.5" spans="1:13">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" ht="16.5" spans="1:13">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" ht="16.5" spans="1:13">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" ht="16.5" spans="1:13">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" ht="16.5" spans="1:13">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" ht="16.5" spans="1:13">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" ht="16.5" spans="1:13">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" ht="16.5" spans="1:13">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I52" s="6"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="6"/>
+    </row>
+    <row r="53" ht="32.25" spans="1:13">
+      <c r="A53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="1">
+        <v>4</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" ht="16.5" spans="1:13">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" ht="16.5" spans="1:13">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" ht="29.25" spans="1:13">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" ht="16.5" spans="1:13">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" ht="16.5" spans="1:13">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" ht="16.5" spans="1:13">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" ht="16.5" spans="1:13">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" ht="16.5" spans="1:13">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" ht="16.5" spans="1:13">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" ht="16.5" spans="1:13">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I63" s="5"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" ht="16.5" spans="1:13">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I64" s="5"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" ht="16.5" spans="1:13">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" ht="16.5" spans="1:13">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" ht="16.5" spans="1:13">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" ht="16.5" spans="1:13">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I68" s="6"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" ht="32.25" spans="1:13">
+      <c r="A69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="1">
+        <v>5</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" ht="32.25" spans="1:13">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H70" s="5"/>
+      <c r="I70" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" ht="16.5" spans="1:13">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" ht="16.5" spans="1:13">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" ht="16.5" spans="1:13">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I73" s="5"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" ht="16.5" spans="1:13">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I74" s="5"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" ht="16.5" spans="1:13">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I75" s="5"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" ht="16.5" spans="1:13">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" ht="16.5" spans="1:13">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" ht="16.5" spans="1:13">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" ht="16.5" spans="1:13">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" ht="16.5" spans="1:13">
+      <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I80" s="5"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" ht="16.5" spans="1:13">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" ht="16.5" spans="1:13">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I82" s="5"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" ht="16.5" spans="1:13">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" ht="16.5" spans="1:13">
+      <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I84" s="5"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" ht="16.5" spans="1:13">
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I85" s="6"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" ht="63.75" spans="1:13">
+      <c r="A86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="1">
+        <v>6</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" ht="29.25" spans="1:13">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" ht="16.5" spans="1:13">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="6"/>
+    </row>
+    <row r="89" ht="48" spans="1:13">
+      <c r="A89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="1">
+        <v>7</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" ht="32.25" spans="1:13">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" ht="63.75" spans="1:13">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" ht="32.25" spans="1:13">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" ht="45" spans="1:13">
+      <c r="A93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="1">
+        <v>8</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" ht="32.25" spans="1:13">
+      <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" ht="79.5" spans="1:13">
+      <c r="A95" s="1"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" ht="29.25" spans="1:13">
+      <c r="A96" s="1"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" ht="16.5" spans="1:13">
+      <c r="A97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="1">
+        <v>4</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" ht="32.25" spans="1:13">
+      <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" ht="16.5" spans="1:13">
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" ht="16.5" spans="1:13">
+      <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" ht="79.5" spans="1:13">
+      <c r="A101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="1">
+        <v>9</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" ht="16.5" spans="1:13">
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M102" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" ht="32.25" spans="1:13">
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M103" s="5"/>
+    </row>
+    <row r="104" ht="16.5" spans="1:13">
+      <c r="A104" s="1"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+    </row>
+    <row r="105" ht="48" spans="1:13">
+      <c r="A105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="1">
+        <v>10</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" ht="63.75" spans="1:13">
+      <c r="A106" s="1"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M106" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" ht="32.25" spans="1:13">
+      <c r="A107" s="1"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M107" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" ht="16.5" spans="1:13">
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+    </row>
+    <row r="109" ht="32.25" spans="1:13">
+      <c r="A109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" s="1">
+        <v>11</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" ht="32.25" spans="1:13">
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="5"/>
+    </row>
+    <row r="111" ht="63.75" spans="1:13">
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" ht="29.25" spans="1:13">
+      <c r="A112" s="1"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" ht="29.25" spans="1:13">
+      <c r="A113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" s="1">
+        <v>4</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" ht="79.5" spans="1:13">
+      <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" ht="79.5" spans="1:13">
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" ht="16.5" spans="1:13">
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" ht="79.5" spans="1:13">
+      <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" ht="63.75" spans="1:13">
+      <c r="A118" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" s="1">
+        <v>12</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M118" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="119" ht="32.25" spans="1:13">
+      <c r="A119" s="1"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" ht="16.5" spans="1:13">
+      <c r="A120" s="1"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="6"/>
+    </row>
+    <row r="121" ht="63.75" spans="1:13">
+      <c r="A121" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" s="1">
+        <v>13</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M121" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" ht="29.25" spans="1:13">
+      <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M122" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" ht="29.25" spans="1:13">
+      <c r="A123" s="1"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M123" s="6"/>
+    </row>
+    <row r="124" ht="79.5" spans="1:13">
+      <c r="A124" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" s="1">
+        <v>14</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M124" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" ht="32.25" spans="1:13">
+      <c r="A125" s="1"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M125" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" ht="29.25" spans="1:13">
+      <c r="A126" s="1"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M126" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="160">
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A19:A35"/>
+    <mergeCell ref="A36:A52"/>
+    <mergeCell ref="A53:A68"/>
+    <mergeCell ref="A69:A85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B19:B35"/>
+    <mergeCell ref="B36:B52"/>
+    <mergeCell ref="B53:B68"/>
+    <mergeCell ref="B69:B85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="B113:B117"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="C2:C18"/>
+    <mergeCell ref="C19:C35"/>
+    <mergeCell ref="C36:C52"/>
+    <mergeCell ref="C53:C68"/>
+    <mergeCell ref="C69:C85"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="D2:D18"/>
+    <mergeCell ref="D19:D35"/>
+    <mergeCell ref="D36:D52"/>
+    <mergeCell ref="D53:D68"/>
+    <mergeCell ref="D69:D85"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="D105:D108"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="D113:D117"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="D121:D123"/>
+    <mergeCell ref="D124:D126"/>
+    <mergeCell ref="E2:E18"/>
+    <mergeCell ref="E19:E35"/>
+    <mergeCell ref="E36:E52"/>
+    <mergeCell ref="E53:E68"/>
+    <mergeCell ref="E69:E85"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="E97:E100"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="E105:E108"/>
+    <mergeCell ref="E109:E112"/>
+    <mergeCell ref="E113:E117"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="E121:E123"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="F2:F18"/>
+    <mergeCell ref="F19:F35"/>
+    <mergeCell ref="F36:F52"/>
+    <mergeCell ref="F53:F68"/>
+    <mergeCell ref="F69:F85"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="F97:F100"/>
+    <mergeCell ref="F101:F104"/>
+    <mergeCell ref="F105:F108"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="F113:F117"/>
+    <mergeCell ref="F118:F120"/>
+    <mergeCell ref="F121:F123"/>
+    <mergeCell ref="F124:F126"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="G89:G92"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="G97:G100"/>
+    <mergeCell ref="G101:G104"/>
+    <mergeCell ref="G105:G108"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="G113:G117"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="G121:G123"/>
+    <mergeCell ref="G124:G126"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="H89:H92"/>
+    <mergeCell ref="H93:H96"/>
+    <mergeCell ref="H97:H100"/>
+    <mergeCell ref="H101:H104"/>
+    <mergeCell ref="H113:H117"/>
+    <mergeCell ref="H118:H120"/>
+    <mergeCell ref="H121:H123"/>
+    <mergeCell ref="H124:H126"/>
+    <mergeCell ref="J2:J18"/>
+    <mergeCell ref="J19:J35"/>
+    <mergeCell ref="J36:J52"/>
+    <mergeCell ref="J53:J68"/>
+    <mergeCell ref="J69:J85"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="J89:J92"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="J97:J100"/>
+    <mergeCell ref="J101:J104"/>
+    <mergeCell ref="J105:J108"/>
+    <mergeCell ref="J109:J112"/>
+    <mergeCell ref="J113:J117"/>
+    <mergeCell ref="J118:J120"/>
+    <mergeCell ref="J121:J123"/>
+    <mergeCell ref="J124:J126"/>
+    <mergeCell ref="K2:K18"/>
+    <mergeCell ref="K19:K35"/>
+    <mergeCell ref="K36:K52"/>
+    <mergeCell ref="K53:K68"/>
+    <mergeCell ref="K69:K85"/>
+    <mergeCell ref="K86:K88"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="K105:K108"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="K113:K117"/>
+    <mergeCell ref="K118:K120"/>
+    <mergeCell ref="K121:K123"/>
+    <mergeCell ref="K124:K126"/>
+    <mergeCell ref="L2:L18"/>
+    <mergeCell ref="L19:L35"/>
+    <mergeCell ref="L36:L52"/>
+    <mergeCell ref="L53:L68"/>
+    <mergeCell ref="L86:L88"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="L109:L112"/>
+    <mergeCell ref="L113:L117"/>
+    <mergeCell ref="L118:L120"/>
+    <mergeCell ref="M53:M68"/>
+    <mergeCell ref="M69:M85"/>
+    <mergeCell ref="M97:M100"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="POST http://gtwIp:port/passenger/v2/prices/estimatepath" tooltip="http://gtwipport/"/>
+    <hyperlink ref="J2" r:id="rId2" display="反参数据正确,priceRule更新为http://marketing.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kid={}&amp;carLevel={}" tooltip="http://marketing.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kid={}&amp;carLevel="/>
+    <hyperlink ref="H19" r:id="rId1" display="POST http://gtwIp:port/passenger/v2/prices/estimatepath" tooltip="http://gtwipport/"/>
+    <hyperlink ref="J19" r:id="rId2" display="反参数据正确,priceRule更新为http://marketing.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kid={}&amp;carLevel={}" tooltip="http://marketing.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kid={}&amp;carLevel="/>
+    <hyperlink ref="H36" r:id="rId1" display="POST http://gtwIp:port/passenger/v2/prices/estimatepath" tooltip="http://gtwipport/"/>
+    <hyperlink ref="J36" r:id="rId2" display="反参数据正确,priceRule更新为http://marketing.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kid={}&amp;carLevel={}" tooltip="http://marketing.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kid={}&amp;carLevel="/>
+    <hyperlink ref="H53" r:id="rId1" display="POST http://gtwIp:port/passenger/v2/prices/estimatepath" tooltip="http://gtwipport/"/>
+    <hyperlink ref="J53" r:id="rId2" display="反参数据正确,priceRule更新为http://marketing.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kid={}&amp;carLevel={}" tooltip="http://marketing.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kid={}&amp;carLevel="/>
+    <hyperlink ref="H69" r:id="rId1" display="POST http://gtwIp:port/passenger/v2/prices/estimatepath" tooltip="http://gtwipport/"/>
+    <hyperlink ref="H86" r:id="rId1" display="GET http://gtwIp:port/passenger/v2/order/detail/${orderId}" tooltip="http://gtwipport/"/>
+    <hyperlink ref="M86" r:id="rId3" display="&quot;priceRule&quot;: &quot;https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=&quot;," tooltip="https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel="/>
+    <hyperlink ref="H89" r:id="rId1" display="GET http://gtwIp:port/passenger/v2/order/detail/${orderId}" tooltip="http://gtwipport/"/>
+    <hyperlink ref="M91" r:id="rId4" display="&quot;priceRule&quot;: &quot;https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=110&quot;," tooltip="https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=110"/>
+    <hyperlink ref="H93" r:id="rId1" display="GET http://gtwIp:port/passenger/v2/order/detail/${orderId}" tooltip="http://gtwipport/"/>
+    <hyperlink ref="M95" r:id="rId5" display="&quot;priceRule&quot;: &quot;https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=0_1_310100_120_1_319040108&amp;carLevel=120&quot;," tooltip="https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=0_1_310100_120_1_319040108&amp;carLevel=120"/>
+    <hyperlink ref="H101" r:id="rId1" display="GET http://gtwIp:port/passenger/v2/order/statement/${orderId}" tooltip="http://gtwipport/"/>
+    <hyperlink ref="M101" r:id="rId6" display="&quot;priceRule&quot;: &quot;https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=0_1_310100_110_1_319040208&amp;carLevel=110&quot;," tooltip="https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=0_1_310100_110_1_319040208&amp;carLevel=110"/>
+    <hyperlink ref="H105" r:id="rId1" display="GET http://gtwIp:port/passenger/v2/order/statement/${orderId}" tooltip="http://gtwipport/"/>
+    <hyperlink ref="M106" r:id="rId4" display="&quot;priceRule&quot;: &quot;https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=110&quot;," tooltip="https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=110"/>
+    <hyperlink ref="H109" r:id="rId1" display="GET http://gtwIp:port/passenger/v2/order/statement/${orderId}" tooltip="http://gtwipport/"/>
+    <hyperlink ref="M111" r:id="rId3" display="&quot;priceRule&quot;: &quot;https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=&quot;," tooltip="https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel="/>
+    <hyperlink ref="M114" r:id="rId3" display="3月26日23点之前：priceRule=https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=" tooltip="https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel="/>
+    <hyperlink ref="M115" r:id="rId4" display="3月26日23点--4月2日之前：priceRule=https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=110" tooltip="https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=110"/>
+    <hyperlink ref="M117" r:id="rId7" display="priceRule=https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=0_1_310100_130_1_319040208&amp;carLevel=130" tooltip="https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=0_1_310100_130_1_319040208&amp;carLevel=130"/>
+    <hyperlink ref="M118" r:id="rId4" display="&quot;priceRule&quot;: &quot;https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=110&quot;," tooltip="https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=110"/>
+    <hyperlink ref="C121" r:id="rId8" display="TRIP-2057" tooltip="http://jira.saicmobility.com:8080/browse/TRIP-2057"/>
+    <hyperlink ref="M121" r:id="rId4" display="&quot;priceRule&quot;: &quot;https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=110&quot;," tooltip="https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=110"/>
+    <hyperlink ref="M124" r:id="rId6" display="&quot;priceRule&quot;: &quot;https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=0_1_310100_110_1_319040208&amp;carLevel=110&quot;," tooltip="https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=0_1_310100_110_1_319040208&amp;carLevel=110"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/testcase/priceruledpgtw/priceruledpgtw.xlsx
+++ b/testcase/priceruledpgtw/priceruledpgtw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="testcases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="173">
   <si>
     <t>模块</t>
   </si>
@@ -664,7 +664,130 @@
     <t>priceRule=https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=0_1_310100_130_1_319040208&amp;carLevel=130</t>
   </si>
   <si>
-    <t>carlevel有显示车级，开发说司机没有3月26日的限制，需要确认。</t>
+    <r>
+      <t>"priceRule": "https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=110",
+carlevel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有显示车级，开发说司机没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日的限制，需要确认。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日开发修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重发司机网关服务，计价规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ "priceRule": "https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和乘客一致，测试通过</t>
+    </r>
   </si>
   <si>
     <t>3.执行接口（先执行司机登录接口）</t>
@@ -683,7 +806,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,6 +860,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -745,8 +919,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,22 +935,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,30 +960,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,15 +968,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,17 +982,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,17 +998,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="10.5"/>
+      <color rgb="FF172B4D"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -896,7 +1025,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,25 +1037,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,13 +1055,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,13 +1097,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,55 +1145,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,37 +1169,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,6 +1286,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1168,15 +1312,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1199,8 +1334,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,22 +1355,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1246,11 +1377,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1262,10 +1391,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1274,137 +1403,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1430,6 +1559,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1824,7 +1962,7 @@
   <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
@@ -1834,12 +1972,12 @@
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="18" style="10" customWidth="1"/>
-    <col min="5" max="5" width="7" style="10" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18" style="13" customWidth="1"/>
+    <col min="5" max="5" width="7" style="13" customWidth="1"/>
     <col min="6" max="6" width="8.875" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="38.25" style="10" customWidth="1"/>
+    <col min="8" max="8" width="38.25" style="13" customWidth="1"/>
     <col min="9" max="9" width="38.25" customWidth="1"/>
     <col min="10" max="10" width="17.75" customWidth="1"/>
     <col min="11" max="11" width="29.625" customWidth="1"/>
@@ -1847,464 +1985,464 @@
     <col min="13" max="13" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:13">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="12" customFormat="1" spans="1:13">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="256.5" spans="1:13">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="17" t="s">
         <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" ht="256.5" spans="1:13">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="17" t="s">
         <v>20</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" ht="256.5" spans="1:13">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="17" t="s">
         <v>20</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" ht="243" spans="1:13">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="17" t="s">
         <v>20</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" ht="256.5" spans="1:13">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="17" t="s">
         <v>34</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:12">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="17" t="s">
         <v>40</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="67.5" spans="1:13">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="17" t="s">
         <v>44</v>
       </c>
       <c r="K8" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="67.5" spans="1:13">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="17" t="s">
         <v>49</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:13">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="17" t="s">
         <v>55</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="67.5" spans="1:12">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="17" t="s">
         <v>49</v>
       </c>
       <c r="K11" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="81" spans="1:13">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="17" t="s">
         <v>44</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="13" t="s">
         <v>45</v>
       </c>
       <c r="M12" t="s">
@@ -2312,38 +2450,38 @@
       </c>
     </row>
     <row r="13" customFormat="1" ht="81" spans="1:13">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F13">
         <v>11</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="17" t="s">
         <v>40</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="13" t="s">
         <v>41</v>
       </c>
       <c r="M13" t="s">
@@ -2351,170 +2489,170 @@
       </c>
     </row>
     <row r="14" customFormat="1" ht="54" spans="1:13">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="17" t="s">
         <v>55</v>
       </c>
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="M14" s="10"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" customFormat="1" ht="54" spans="1:12">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F15">
         <v>12</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="17" t="s">
         <v>40</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="67.5" spans="1:12">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F16">
         <v>13</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="17" t="s">
         <v>44</v>
       </c>
       <c r="K16" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" ht="54" spans="1:12">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F17">
         <v>14</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="17" t="s">
         <v>49</v>
       </c>
       <c r="K17" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="5:5">
-      <c r="E18" s="14"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" ht="14.25" spans="5:5">
-      <c r="E19" s="14"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" ht="14.25" spans="5:5">
-      <c r="E20" s="14"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" ht="14.25" spans="5:5">
-      <c r="E21" s="14"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" ht="14.25" spans="5:5">
-      <c r="E22" s="14"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" ht="14.25" spans="5:5">
-      <c r="E23" s="14"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" ht="14.25" spans="5:5">
-      <c r="E24" s="14"/>
+      <c r="E24" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2547,10 +2685,10 @@
   <sheetPr/>
   <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2:L18"/>
+      <selection pane="bottomLeft" activeCell="N119" sqref="N119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4990,7 +5128,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="118" ht="63.75" spans="1:13">
+    <row r="118" ht="15.75" spans="1:13">
       <c r="A118" s="1" t="s">
         <v>72</v>
       </c>
@@ -5025,11 +5163,11 @@
       <c r="L118" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M118" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="119" ht="32.25" spans="1:13">
+      <c r="M118" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" ht="28.5" spans="1:13">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -5044,9 +5182,7 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
-      <c r="M119" s="4" t="s">
-        <v>170</v>
-      </c>
+      <c r="M119" s="10"/>
     </row>
     <row r="120" ht="16.5" spans="1:13">
       <c r="A120" s="1"/>
@@ -5063,7 +5199,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
-      <c r="M120" s="6"/>
+      <c r="M120" s="11"/>
     </row>
     <row r="121" ht="63.75" spans="1:13">
       <c r="A121" s="1" t="s">
@@ -5224,7 +5360,7 @@
       <c r="M126" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="160">
+  <mergeCells count="161">
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="A19:A35"/>
     <mergeCell ref="A36:A52"/>
@@ -5385,6 +5521,7 @@
     <mergeCell ref="M53:M68"/>
     <mergeCell ref="M69:M85"/>
     <mergeCell ref="M97:M100"/>
+    <mergeCell ref="M118:M120"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="POST http://gtwIp:port/passenger/v2/prices/estimatepath" tooltip="http://gtwipport/"/>
@@ -5411,7 +5548,6 @@
     <hyperlink ref="M114" r:id="rId3" display="3月26日23点之前：priceRule=https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=" tooltip="https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel="/>
     <hyperlink ref="M115" r:id="rId4" display="3月26日23点--4月2日之前：priceRule=https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=110" tooltip="https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=110"/>
     <hyperlink ref="M117" r:id="rId7" display="priceRule=https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=0_1_310100_130_1_319040208&amp;carLevel=130" tooltip="https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=0_1_310100_130_1_319040208&amp;carLevel=130"/>
-    <hyperlink ref="M118" r:id="rId4" display="&quot;priceRule&quot;: &quot;https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=110&quot;," tooltip="https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=110"/>
     <hyperlink ref="C121" r:id="rId8" display="TRIP-2057" tooltip="http://jira.saicmobility.com:8080/browse/TRIP-2057"/>
     <hyperlink ref="M121" r:id="rId4" display="&quot;priceRule&quot;: &quot;https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=110&quot;," tooltip="https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=&amp;carLevel=110"/>
     <hyperlink ref="M124" r:id="rId6" display="&quot;priceRule&quot;: &quot;https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=0_1_310100_110_1_319040208&amp;carLevel=110&quot;," tooltip="https://marketing-test.saicmobility.com/cms-help/passenger/pricingRuleByKid.html?kId=0_1_310100_110_1_319040208&amp;carLevel=110"/>
